--- a/Mifos Automation Excels/Client/2477-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2477-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -159,18 +159,12 @@
     <t>Cash(1)</t>
   </si>
   <si>
-    <t>L14</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
     <t>L15</t>
   </si>
   <si>
-    <t>L46</t>
-  </si>
-  <si>
     <t>Accrual</t>
   </si>
   <si>
@@ -183,25 +177,31 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L21</t>
-  </si>
-  <si>
-    <t>L24</t>
+    <t>L83</t>
+  </si>
+  <si>
+    <t>L87</t>
+  </si>
+  <si>
+    <t>L85</t>
+  </si>
+  <si>
+    <t>L86</t>
+  </si>
+  <si>
+    <t>$ 100</t>
   </si>
   <si>
     <t>$ 864.54</t>
   </si>
   <si>
-    <t>$ 100</t>
+    <t>$ 964.54</t>
   </si>
   <si>
     <t>$ 91.35</t>
   </si>
   <si>
     <t>$ 873.19</t>
-  </si>
-  <si>
-    <t>$ 964.54</t>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -329,9 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -347,16 +344,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +654,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +690,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +744,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>520.48</v>
+        <v>609.95000000000005</v>
       </c>
       <c r="B3" s="6">
         <v>191.35</v>
@@ -764,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>329.13</v>
+        <v>418.6</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1042,21 +1034,21 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>964.54</v>
+        <v>881.92</v>
       </c>
       <c r="G6" s="9">
-        <v>7297.73</v>
+        <v>7380.35</v>
       </c>
       <c r="H6" s="6">
-        <v>0</v>
+        <v>82.62</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1085,21 +1077,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>891.56</v>
+        <v>890.74</v>
       </c>
       <c r="G7" s="9">
-        <v>6406.17</v>
+        <v>6489.61</v>
       </c>
       <c r="H7" s="6">
-        <v>72.98</v>
+        <v>73.8</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1128,21 +1120,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>900.48</v>
+        <v>899.64</v>
       </c>
       <c r="G8" s="9">
-        <v>5505.69</v>
+        <v>5589.97</v>
       </c>
       <c r="H8" s="6">
-        <v>64.06</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1171,21 +1163,21 @@
         <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>909.48</v>
+        <v>908.64</v>
       </c>
       <c r="G9" s="9">
-        <v>4596.21</v>
+        <v>4681.33</v>
       </c>
       <c r="H9" s="6">
-        <v>55.06</v>
+        <v>55.9</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1217,18 +1209,18 @@
         <v>31</v>
       </c>
       <c r="C10" s="7">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>918.58</v>
+        <v>917.73</v>
       </c>
       <c r="G10" s="9">
-        <v>3677.63</v>
+        <v>3763.6</v>
       </c>
       <c r="H10" s="6">
-        <v>45.96</v>
+        <v>46.81</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1257,21 +1249,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>927.76</v>
+        <v>926.9</v>
       </c>
       <c r="G11" s="9">
-        <v>2749.87</v>
+        <v>2836.7</v>
       </c>
       <c r="H11" s="6">
-        <v>36.78</v>
+        <v>37.64</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1300,21 +1292,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>937.04</v>
+        <v>936.17</v>
       </c>
       <c r="G12" s="9">
-        <v>1812.83</v>
+        <v>1900.53</v>
       </c>
       <c r="H12" s="6">
-        <v>27.5</v>
+        <v>28.37</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1343,21 +1335,21 @@
         <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>946.41</v>
+        <v>945.53</v>
       </c>
       <c r="G13" s="6">
-        <v>866.42</v>
+        <v>955</v>
       </c>
       <c r="H13" s="6">
-        <v>18.13</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1386,21 +1378,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>866.42</v>
+        <v>955</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>8.66</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1409,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>875.08</v>
+        <v>964.55</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1421,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>875.08</v>
+        <v>964.55</v>
       </c>
     </row>
   </sheetData>
@@ -1434,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1479,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>4886</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1521,7 +1513,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>4885</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1530,7 +1522,7 @@
         <v>42095</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6">
         <v>91.35</v>
@@ -1555,7 +1547,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>4884</v>
+        <v>85</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -1564,7 +1556,7 @@
         <v>42064</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="6">
         <v>100</v>
@@ -1589,7 +1581,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4883</v>
+        <v>84</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -1623,7 +1615,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>4882</v>
+        <v>83</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -1657,7 +1649,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>4881</v>
+        <v>82</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>27</v>
@@ -1804,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1814,7 @@
     <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1851,103 +1843,86 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>31</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>165</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>166</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>32</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>167</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C4" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="H4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1959,7 +1934,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,7 +1990,7 @@
         <v>42064</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>40</v>
@@ -2026,10 +2001,10 @@
       <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2042,7 +2017,7 @@
         <v>42064</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>40</v>
@@ -2053,8 +2028,8 @@
       <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2065,27 +2040,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2114,103 +2089,86 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>100</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>174</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="17">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>175</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17">
+        <v>42095</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>101</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>176</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C4" s="17">
+        <v>42095</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
+      <c r="G4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>102</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2221,158 +2179,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>35</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="6">
+        <v>170</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="7">
         <v>42064</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>171</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>36</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>172</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="C5" s="7">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>173</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42095</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>44</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="18">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>45</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="18">
-        <v>42095</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
-        <v>57</v>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/2477-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2477-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -207,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,6 +365,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -407,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,9 +448,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,6 +500,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -809,10 +851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,12 +872,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,17 +918,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -909,10 +953,11 @@
         <v>0</v>
       </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N2" s="22"/>
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -936,10 +981,11 @@
         <v>0</v>
       </c>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="22"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -977,14 +1023,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="22"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1022,14 +1069,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="22"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1065,14 +1113,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="22"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1108,14 +1157,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="22"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1151,14 +1201,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="22"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1194,14 +1245,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="22"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1237,14 +1289,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="22"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1280,14 +1333,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="22"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1323,14 +1377,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="22"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1366,14 +1421,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="22"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1409,10 +1465,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="22"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>964.55</v>
       </c>
     </row>
@@ -2179,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
